--- a/サーバ側設計.xlsx
+++ b/サーバ側設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odagi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC99BB-40FA-47B0-A742-989D6441D934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626E72B0-D1B9-4FB5-B605-0CBF94AADF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-48" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{94CBB29F-0AEF-4F9E-BB03-FDF6AAF0E2AC}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="パッチ処理" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$A$3:$N$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$A$3:$N$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="201">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1"/>
@@ -1081,6 +1081,107 @@
   </si>
   <si>
     <t>listName,listDate,listTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HaveNotAuthorityInSpaceException</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/user/insert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>username,password,oneMorePassword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AlreadyUsedException</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのスペース内である操作に必要な権限を持っていない</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名のバッティング</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotFoundException</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるデータが見つからない（存在しない）</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの取得</t>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト　ユーザー取得</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/space/user/get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/space/get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spaceId</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1177,15 +1278,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1377,13 +1484,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,9 +1563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,7 +1578,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1558,46 +1701,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2038,141 +2250,141 @@
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="3:30" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
     </row>
     <row r="2" spans="3:30" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="27"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="31"/>
     </row>
     <row r="3" spans="3:30" x14ac:dyDescent="0.45">
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="U3" s="32" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="U3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="33"/>
-      <c r="W3" s="34" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="35"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="34" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
     </row>
     <row r="5" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D5" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="30" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="31"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D6" s="12">
         <v>3</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="38" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="39"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="43"/>
     </row>
     <row r="7" spans="3:30" x14ac:dyDescent="0.45">
       <c r="X7" s="3" t="s">
@@ -2180,15 +2392,15 @@
       </c>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.45">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="11">
         <v>1</v>
       </c>
@@ -2196,183 +2408,183 @@
       <c r="L8" s="5">
         <v>1</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31"/>
       <c r="Q8" s="6">
         <v>1</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="46"/>
-      <c r="U8" s="25" t="s">
+      <c r="T8" s="50"/>
+      <c r="U8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="27"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="31"/>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.45">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="M9" s="36" t="s">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="M9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="43" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="U9" s="28" t="s">
+      <c r="P9" s="48"/>
+      <c r="U9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30" t="s">
+      <c r="V9" s="33"/>
+      <c r="W9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="31"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="3:30" x14ac:dyDescent="0.45">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="34" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
       <c r="O10" s="2"/>
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="U10" s="28" t="s">
+      <c r="U10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="29"/>
-      <c r="W10" s="30" t="s">
+      <c r="V10" s="33"/>
+      <c r="W10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="31"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="3:30" x14ac:dyDescent="0.45">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
       <c r="O11" s="7"/>
-      <c r="U11" s="36" t="s">
+      <c r="U11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38" t="s">
+      <c r="V11" s="41"/>
+      <c r="W11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="39"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
     </row>
     <row r="12" spans="3:30" x14ac:dyDescent="0.45">
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.45">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="3:30" x14ac:dyDescent="0.45">
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="40" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
       <c r="O14" s="7"/>
-      <c r="U14" s="23" t="s">
+      <c r="U14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
     </row>
     <row r="15" spans="3:30" x14ac:dyDescent="0.45">
       <c r="O15" s="7"/>
       <c r="U15" s="12">
         <v>1</v>
       </c>
-      <c r="V15" s="23" t="s">
+      <c r="V15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="24" t="s">
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
     </row>
     <row r="16" spans="3:30" x14ac:dyDescent="0.45">
       <c r="O16" s="5"/>
@@ -2382,70 +2594,70 @@
       <c r="U16" s="12">
         <v>2</v>
       </c>
-      <c r="V16" s="23" t="s">
+      <c r="V16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23" t="s">
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="M17" s="25" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="M17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
       <c r="U17" s="12">
         <v>3</v>
       </c>
-      <c r="V17" s="23" t="s">
+      <c r="V17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23" t="s">
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="6">
         <v>1</v>
       </c>
@@ -2453,52 +2665,52 @@
       <c r="L18" s="5">
         <v>1</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="34" t="s">
+      <c r="N18" s="33"/>
+      <c r="O18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="39"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="34" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="M19" s="36" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="M19" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38" t="s">
+      <c r="N19" s="41"/>
+      <c r="O19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="39"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
       <c r="O20" s="9"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="1">
@@ -2506,44 +2718,44 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="O21" s="10"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
       <c r="O22" s="10"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
       <c r="O23" s="10"/>
       <c r="P23" s="7"/>
     </row>
@@ -2559,113 +2771,113 @@
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="27"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="31"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="37"/>
+      <c r="M27" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="35"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="39"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30" t="s">
+      <c r="L28" s="33"/>
+      <c r="M28" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="31"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="35"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="34" t="s">
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="35"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="39"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="34" t="s">
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="39"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30" t="s">
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="31"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="35"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="38" t="s">
+      <c r="K32" s="40"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="39"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="79">
@@ -2761,7 +2973,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+      <selection activeCell="E15" sqref="E15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2771,241 +2983,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="A10" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="A12" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="A13" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="42">
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:J18"/>
@@ -3027,12 +3251,9 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:J13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:J11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:J8"/>
@@ -3063,10 +3284,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3075,48 +3296,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="14" t="s">
         <v>143</v>
       </c>
@@ -3125,1231 +3346,1321 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="23" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="23" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="P5" s="23"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="23" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23" t="s">
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="23" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23" t="s">
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="P8" s="23"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60" t="s">
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="14" t="s">
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="19" t="s">
-        <v>158</v>
+      <c r="E13" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="20" t="s">
-        <v>159</v>
+      <c r="E14" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60" t="s">
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="14" t="s">
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="70" t="s">
+    <row r="17" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="17" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E17" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="59" t="s">
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59" t="s">
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="P16" s="59"/>
-    </row>
-    <row r="17" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="65" t="s">
+      <c r="P17" s="69"/>
+    </row>
+    <row r="18" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="15" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E18" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66" t="s">
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="55" t="s">
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P18" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60" t="s">
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="20" t="s">
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="59" t="s">
+    <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="61" t="s">
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61" t="s">
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="P21" s="61"/>
-    </row>
-    <row r="22" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="59" t="s">
+      <c r="P22" s="70"/>
+    </row>
+    <row r="23" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="17" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E23" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64" t="s">
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="59" t="s">
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="P22" s="59"/>
-    </row>
-    <row r="23" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="65" t="s">
+      <c r="P23" s="66"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="15" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E24" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="55" t="s">
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P24" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="23" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="14" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E25" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60" t="s">
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="14" t="s">
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="62" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="17" t="s">
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E27" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64" t="s">
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="17" t="s">
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="61" t="s">
+    <row r="28" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="16" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E28" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67" t="s">
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="58" t="s">
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="P26" s="22" t="s">
+      <c r="P28" s="26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="14" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E29" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60" t="s">
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="14" t="s">
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="23" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="14" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E30" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60" t="s">
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="14" t="s">
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="23" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="94"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="14" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E32" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60" t="s">
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="14" t="s">
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" s="23" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="P31" s="23"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A32" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="P34" s="27"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="27"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60" t="s">
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="23" t="s">
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P37" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="14" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E38" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60" t="s">
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="14" t="s">
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60" t="s">
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="56" t="s">
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="P39" s="14" t="s">
+      <c r="P42" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" s="23" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="14" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E43" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A42" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="71"/>
       <c r="F43" s="71"/>
       <c r="G43" s="71"/>
       <c r="H43" s="71"/>
       <c r="I43" s="71"/>
       <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
+      <c r="K43" s="71" t="s">
+        <v>130</v>
+      </c>
       <c r="L43" s="71"/>
       <c r="M43" s="71"/>
       <c r="N43" s="71"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="71"/>
+      <c r="A44" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>108</v>
+      </c>
       <c r="F44" s="71"/>
       <c r="G44" s="71"/>
       <c r="H44" s="71"/>
       <c r="I44" s="71"/>
       <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
+      <c r="K44" s="71" t="s">
+        <v>134</v>
+      </c>
       <c r="L44" s="71"/>
       <c r="M44" s="71"/>
       <c r="N44" s="71"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="71"/>
+      <c r="A45" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="71" t="s">
+        <v>141</v>
+      </c>
       <c r="F45" s="71"/>
       <c r="G45" s="71"/>
       <c r="H45" s="71"/>
       <c r="I45" s="71"/>
       <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
+      <c r="K45" s="71" t="s">
+        <v>130</v>
+      </c>
       <c r="L45" s="71"/>
       <c r="M45" s="71"/>
       <c r="N45" s="71"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
+  <mergeCells count="148">
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="E45:J45"/>
     <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="K40:N40"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:N21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="K40:N40"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="K39:N39"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="K37:N37"/>
     <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:N13"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="K27:N27"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:N13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="K14:N14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="A7:C7"/>
@@ -4361,30 +4672,33 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="O37:O40"/>
+    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O34:P34"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O13:O16"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
